--- a/Documentation/Gabarits et Outils EXCEL/gabarit-stat_gen1.xlsx
+++ b/Documentation/Gabarits et Outils EXCEL/gabarit-stat_gen1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\Documentation\Gabarits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\Documentation\Gabarits et Outils EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,15 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="stat_gen1" sheetId="1" r:id="rId1"/>
-    <sheet name="stat_gen1_02" sheetId="35" r:id="rId2"/>
-    <sheet name="stat_gen1_03" sheetId="36" r:id="rId3"/>
-    <sheet name="stat_gen1_04" sheetId="37" r:id="rId4"/>
-    <sheet name="stat_gen1_05" sheetId="38" r:id="rId5"/>
-    <sheet name="stat_gen1_06" sheetId="39" r:id="rId6"/>
-    <sheet name="stat_gen1_07" sheetId="40" r:id="rId7"/>
-    <sheet name="stat_gen1_08" sheetId="41" r:id="rId8"/>
-    <sheet name="stat_gen1_09" sheetId="42" r:id="rId9"/>
-    <sheet name="stat_gen1_10" sheetId="43" r:id="rId10"/>
+    <sheet name="stat_gen1_02" sheetId="63" r:id="rId2"/>
+    <sheet name="stat_gen1_03" sheetId="64" r:id="rId3"/>
+    <sheet name="stat_gen1_04" sheetId="65" r:id="rId4"/>
+    <sheet name="stat_gen1_05" sheetId="66" r:id="rId5"/>
+    <sheet name="stat_gen1_06" sheetId="67" r:id="rId6"/>
+    <sheet name="stat_gen1_07" sheetId="68" r:id="rId7"/>
+    <sheet name="stat_gen1_08" sheetId="69" r:id="rId8"/>
+    <sheet name="stat_gen1_09" sheetId="70" r:id="rId9"/>
+    <sheet name="stat_gen1_10" sheetId="71" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="32">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -122,7 +122,22 @@
     <t>GROUPER_PAR</t>
   </si>
   <si>
-    <t>Codes</t>
+    <t>AHFS</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>CodeList</t>
+  </si>
+  <si>
+    <t>CodeServ</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>AGE_DATE</t>
   </si>
 </sst>
 </file>
@@ -455,11 +470,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -470,17 +485,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -511,15 +524,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -527,7 +543,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -538,133 +554,179 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations xWindow="905" yWindow="319" count="14">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -673,12 +735,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil10"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -689,17 +750,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -730,15 +789,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -746,7 +808,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -757,127 +819,173 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
@@ -892,12 +1000,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -908,17 +1015,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -949,15 +1054,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -965,7 +1073,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -976,127 +1084,173 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
@@ -1111,12 +1265,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1127,17 +1280,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1168,15 +1319,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,7 +1338,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1195,127 +1349,173 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
@@ -1330,12 +1530,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1346,17 +1545,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1387,15 +1584,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1603,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1414,127 +1614,173 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
@@ -1549,12 +1795,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1565,17 +1810,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1606,15 +1849,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1868,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1633,127 +1879,173 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
@@ -1768,12 +2060,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1784,17 +2075,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1825,15 +2114,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +2133,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1852,127 +2144,173 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
@@ -1987,12 +2325,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil7"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -2003,17 +2340,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -2044,15 +2379,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2060,7 +2398,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -2071,127 +2409,173 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
@@ -2206,12 +2590,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil8"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -2222,17 +2605,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -2263,15 +2644,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2279,7 +2663,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -2290,127 +2674,173 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
@@ -2425,12 +2855,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil9"/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -2441,17 +2870,15 @@
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -2482,15 +2909,18 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2498,7 +2928,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -2509,127 +2939,173 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+      <c r="O2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
         <v/>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+      <c r="O3" s="6" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
         <v/>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+      <c r="O7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="str">
-        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+      <c r="O8" s="6" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="6" t="str">
-        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+      <c r="O12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+      <c r="O17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>Teneur</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="1" t="s">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Format</v>
       </c>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
+      <formula1>$O$7:$O$9</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
+      <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
